--- a/TestResultsECG.xlsx
+++ b/TestResultsECG.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana Leal\Documents\GitHub\SeizurePrediction\Results\figures_paper_threshold_redundance90_th_0.7_gm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adriana Leal\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9627ECB6-E837-495F-94ED-833BE790EB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDF3226-D9A6-49DA-A3AC-85CE1687DBAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1920" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hybrid" sheetId="1" r:id="rId1"/>
-    <sheet name="Control" sheetId="2" r:id="rId2"/>
+    <sheet name="Control" sheetId="3" r:id="rId2"/>
+    <sheet name="SOTA" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="171">
   <si>
     <t>Patient</t>
   </si>
@@ -62,7 +63,7 @@
     <t>Kruskal_Wallis</t>
   </si>
   <si>
-    <t>0.44±0.5</t>
+    <t>0.42±0.49</t>
   </si>
   <si>
     <t>11002</t>
@@ -77,379 +78,433 @@
     <t>AUC</t>
   </si>
   <si>
+    <t>0.36±0.48</t>
+  </si>
+  <si>
+    <t>16202</t>
+  </si>
+  <si>
+    <t>68.13</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>0.19±0.39</t>
+  </si>
+  <si>
+    <t>21902</t>
+  </si>
+  <si>
+    <t>61.41</t>
+  </si>
+  <si>
+    <t>33.73</t>
+  </si>
+  <si>
+    <t>23902</t>
+  </si>
+  <si>
+    <t>73.33</t>
+  </si>
+  <si>
+    <t>33.99</t>
+  </si>
+  <si>
+    <t>26102</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>0.2±0.4</t>
+  </si>
+  <si>
+    <t>30802</t>
+  </si>
+  <si>
+    <t>0.13±0.33</t>
+  </si>
+  <si>
+    <t>32702</t>
+  </si>
+  <si>
+    <t>66.93</t>
+  </si>
+  <si>
+    <t>9.8</t>
+  </si>
+  <si>
+    <t>0.26±0.44</t>
+  </si>
+  <si>
+    <t>45402</t>
+  </si>
+  <si>
+    <t>87.87</t>
+  </si>
+  <si>
+    <t>11.13</t>
+  </si>
+  <si>
+    <t>46702</t>
+  </si>
+  <si>
+    <t>50802</t>
+  </si>
+  <si>
+    <t>88.34</t>
+  </si>
+  <si>
+    <t>10.2</t>
+  </si>
+  <si>
+    <t>52302</t>
+  </si>
+  <si>
+    <t>86.67</t>
+  </si>
+  <si>
+    <t>53402</t>
+  </si>
+  <si>
+    <t>55202</t>
+  </si>
+  <si>
+    <t>0.29±0.46</t>
+  </si>
+  <si>
+    <t>56402</t>
+  </si>
+  <si>
+    <t>35.03</t>
+  </si>
+  <si>
+    <t>7.02</t>
+  </si>
+  <si>
+    <t>0.12±0.32</t>
+  </si>
+  <si>
+    <t>58602</t>
+  </si>
+  <si>
+    <t>83.16</t>
+  </si>
+  <si>
+    <t>12.66</t>
+  </si>
+  <si>
+    <t>0.17±0.37</t>
+  </si>
+  <si>
+    <t>59102</t>
+  </si>
+  <si>
+    <t>115.47</t>
+  </si>
+  <si>
+    <t>11.25</t>
+  </si>
+  <si>
+    <t>0.73±0.44</t>
+  </si>
+  <si>
+    <t>60002</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>16.33</t>
+  </si>
+  <si>
+    <t>0.06±0.24</t>
+  </si>
+  <si>
+    <t>64702</t>
+  </si>
+  <si>
+    <t>75.71</t>
+  </si>
+  <si>
+    <t>31.76</t>
+  </si>
+  <si>
+    <t>0.43±0.49</t>
+  </si>
+  <si>
+    <t>75202</t>
+  </si>
+  <si>
+    <t>80702</t>
+  </si>
+  <si>
+    <t>90.44</t>
+  </si>
+  <si>
+    <t>21.2</t>
+  </si>
+  <si>
+    <t>0.24±0.42</t>
+  </si>
+  <si>
+    <t>85202</t>
+  </si>
+  <si>
+    <t>96.55</t>
+  </si>
+  <si>
+    <t>4.88</t>
+  </si>
+  <si>
+    <t>93402</t>
+  </si>
+  <si>
+    <t>24.94</t>
+  </si>
+  <si>
+    <t>0.11±0.31</t>
+  </si>
+  <si>
+    <t>93902</t>
+  </si>
+  <si>
+    <t>53.9</t>
+  </si>
+  <si>
+    <t>13.54</t>
+  </si>
+  <si>
+    <t>94402</t>
+  </si>
+  <si>
+    <t>60.61</t>
+  </si>
+  <si>
+    <t>27.87</t>
+  </si>
+  <si>
+    <t>95202</t>
+  </si>
+  <si>
+    <t>59.19</t>
+  </si>
+  <si>
+    <t>34.48</t>
+  </si>
+  <si>
+    <t>0.03±0.17</t>
+  </si>
+  <si>
+    <t>96002</t>
+  </si>
+  <si>
+    <t>80.87</t>
+  </si>
+  <si>
+    <t>1.23</t>
+  </si>
+  <si>
+    <t>0.16±0.36</t>
+  </si>
+  <si>
+    <t>98102</t>
+  </si>
+  <si>
+    <t>68.84</t>
+  </si>
+  <si>
+    <t>36.27</t>
+  </si>
+  <si>
+    <t>0.5±0.5</t>
+  </si>
+  <si>
+    <t>98202</t>
+  </si>
+  <si>
+    <t>9.43</t>
+  </si>
+  <si>
+    <t>0.16±0.37</t>
+  </si>
+  <si>
+    <t>101702</t>
+  </si>
+  <si>
+    <t>99.5</t>
+  </si>
+  <si>
+    <t>15.72</t>
+  </si>
+  <si>
+    <t>0.14±0.34</t>
+  </si>
+  <si>
+    <t>102202</t>
+  </si>
+  <si>
+    <t>113.33</t>
+  </si>
+  <si>
+    <t>0.17±0.38</t>
+  </si>
+  <si>
+    <t>104602</t>
+  </si>
+  <si>
+    <t>70.39</t>
+  </si>
+  <si>
+    <t>21.24</t>
+  </si>
+  <si>
+    <t>109502</t>
+  </si>
+  <si>
+    <t>53.33</t>
+  </si>
+  <si>
+    <t>110602</t>
+  </si>
+  <si>
+    <t>94.27</t>
+  </si>
+  <si>
+    <t>10.15</t>
+  </si>
+  <si>
+    <t>112802</t>
+  </si>
+  <si>
+    <t>0.1±0.3</t>
+  </si>
+  <si>
+    <t>113902</t>
+  </si>
+  <si>
+    <t>0.07±0.25</t>
+  </si>
+  <si>
+    <t>114702</t>
+  </si>
+  <si>
+    <t>63.54</t>
+  </si>
+  <si>
+    <t>12.25</t>
+  </si>
+  <si>
+    <t>114902</t>
+  </si>
+  <si>
+    <t>0.05±0.22</t>
+  </si>
+  <si>
+    <t>123902</t>
+  </si>
+  <si>
+    <t>0.35±0.48</t>
+  </si>
+  <si>
+    <t>0.18±0.38</t>
+  </si>
+  <si>
+    <t>40.0</t>
+  </si>
+  <si>
+    <t>0.15±0.36</t>
+  </si>
+  <si>
+    <t>0.06±0.23</t>
+  </si>
+  <si>
+    <t>0.24±0.43</t>
+  </si>
+  <si>
+    <t>0.12±0.33</t>
+  </si>
+  <si>
+    <t>46.67</t>
+  </si>
+  <si>
+    <t>0.08±0.27</t>
+  </si>
+  <si>
+    <t>66.67</t>
+  </si>
+  <si>
+    <t>37.71</t>
+  </si>
+  <si>
+    <t>0.23±0.42</t>
+  </si>
+  <si>
+    <t>0.27±0.44</t>
+  </si>
+  <si>
     <t>0.33±0.47</t>
   </si>
   <si>
-    <t>16202</t>
-  </si>
-  <si>
-    <t>68.13</t>
-  </si>
-  <si>
-    <t>11.5</t>
-  </si>
-  <si>
-    <t>0.2±0.4</t>
-  </si>
-  <si>
-    <t>21902</t>
-  </si>
-  <si>
-    <t>61.41</t>
-  </si>
-  <si>
-    <t>33.73</t>
-  </si>
-  <si>
-    <t>23902</t>
-  </si>
-  <si>
-    <t>73.33</t>
-  </si>
-  <si>
-    <t>33.99</t>
-  </si>
-  <si>
-    <t>26102</t>
-  </si>
-  <si>
-    <t>80.0</t>
+    <t>Fred</t>
+  </si>
+  <si>
+    <t>Frel</t>
+  </si>
+  <si>
+    <t>0.6±0.49</t>
   </si>
   <si>
     <t>0.19±0.4</t>
   </si>
   <si>
-    <t>30802</t>
-  </si>
-  <si>
-    <t>0.12±0.32</t>
-  </si>
-  <si>
-    <t>32702</t>
-  </si>
-  <si>
-    <t>66.93</t>
-  </si>
-  <si>
-    <t>9.8</t>
-  </si>
-  <si>
-    <t>0.26±0.44</t>
-  </si>
-  <si>
-    <t>45402</t>
-  </si>
-  <si>
-    <t>87.87</t>
-  </si>
-  <si>
-    <t>11.13</t>
-  </si>
-  <si>
-    <t>46702</t>
-  </si>
-  <si>
-    <t>50802</t>
-  </si>
-  <si>
-    <t>88.34</t>
-  </si>
-  <si>
-    <t>10.2</t>
-  </si>
-  <si>
-    <t>52302</t>
-  </si>
-  <si>
-    <t>86.67</t>
-  </si>
-  <si>
-    <t>53402</t>
-  </si>
-  <si>
-    <t>55202</t>
-  </si>
-  <si>
-    <t>0.3±0.46</t>
-  </si>
-  <si>
-    <t>56402</t>
-  </si>
-  <si>
-    <t>35.03</t>
-  </si>
-  <si>
-    <t>7.02</t>
-  </si>
-  <si>
-    <t>0.12±0.33</t>
-  </si>
-  <si>
-    <t>58602</t>
-  </si>
-  <si>
-    <t>83.16</t>
-  </si>
-  <si>
-    <t>12.66</t>
-  </si>
-  <si>
-    <t>0.19±0.39</t>
-  </si>
-  <si>
-    <t>59102</t>
-  </si>
-  <si>
-    <t>115.47</t>
-  </si>
-  <si>
-    <t>11.25</t>
-  </si>
-  <si>
-    <t>0.74±0.44</t>
-  </si>
-  <si>
-    <t>60002</t>
-  </si>
-  <si>
-    <t>100.0</t>
-  </si>
-  <si>
-    <t>16.33</t>
-  </si>
-  <si>
-    <t>0.06±0.23</t>
-  </si>
-  <si>
-    <t>64702</t>
-  </si>
-  <si>
-    <t>75.71</t>
-  </si>
-  <si>
-    <t>31.76</t>
-  </si>
-  <si>
-    <t>0.42±0.49</t>
-  </si>
-  <si>
-    <t>75202</t>
-  </si>
-  <si>
-    <t>0.25±0.43</t>
-  </si>
-  <si>
-    <t>80702</t>
-  </si>
-  <si>
-    <t>90.44</t>
-  </si>
-  <si>
-    <t>21.2</t>
-  </si>
-  <si>
-    <t>85202</t>
-  </si>
-  <si>
-    <t>96.55</t>
-  </si>
-  <si>
-    <t>4.88</t>
-  </si>
-  <si>
-    <t>93402</t>
-  </si>
-  <si>
-    <t>24.94</t>
-  </si>
-  <si>
     <t>0.11±0.32</t>
   </si>
   <si>
-    <t>93902</t>
-  </si>
-  <si>
-    <t>53.9</t>
-  </si>
-  <si>
-    <t>13.54</t>
-  </si>
-  <si>
-    <t>94402</t>
-  </si>
-  <si>
-    <t>60.61</t>
-  </si>
-  <si>
-    <t>27.87</t>
-  </si>
-  <si>
-    <t>95202</t>
-  </si>
-  <si>
-    <t>59.19</t>
-  </si>
-  <si>
-    <t>34.48</t>
-  </si>
-  <si>
-    <t>0.02±0.15</t>
-  </si>
-  <si>
-    <t>96002</t>
-  </si>
-  <si>
-    <t>80.87</t>
-  </si>
-  <si>
-    <t>1.23</t>
-  </si>
-  <si>
-    <t>0.15±0.36</t>
-  </si>
-  <si>
-    <t>98102</t>
-  </si>
-  <si>
-    <t>68.84</t>
-  </si>
-  <si>
-    <t>36.27</t>
-  </si>
-  <si>
-    <t>0.53±0.5</t>
-  </si>
-  <si>
-    <t>98202</t>
-  </si>
-  <si>
-    <t>9.43</t>
-  </si>
-  <si>
-    <t>0.16±0.37</t>
-  </si>
-  <si>
-    <t>101702</t>
-  </si>
-  <si>
-    <t>99.5</t>
-  </si>
-  <si>
-    <t>15.72</t>
-  </si>
-  <si>
-    <t>0.14±0.34</t>
-  </si>
-  <si>
-    <t>102202</t>
-  </si>
-  <si>
-    <t>113.33</t>
-  </si>
-  <si>
-    <t>0.17±0.38</t>
-  </si>
-  <si>
-    <t>104602</t>
-  </si>
-  <si>
-    <t>70.39</t>
-  </si>
-  <si>
-    <t>21.24</t>
-  </si>
-  <si>
-    <t>109502</t>
-  </si>
-  <si>
-    <t>53.33</t>
-  </si>
-  <si>
-    <t>110602</t>
-  </si>
-  <si>
-    <t>94.27</t>
-  </si>
-  <si>
-    <t>10.15</t>
-  </si>
-  <si>
-    <t>0.07±0.25</t>
-  </si>
-  <si>
-    <t>112802</t>
-  </si>
-  <si>
-    <t>0.09±0.28</t>
-  </si>
-  <si>
-    <t>113902</t>
-  </si>
-  <si>
-    <t>0.08±0.27</t>
-  </si>
-  <si>
-    <t>114702</t>
-  </si>
-  <si>
-    <t>63.54</t>
-  </si>
-  <si>
-    <t>12.25</t>
-  </si>
-  <si>
-    <t>114902</t>
-  </si>
-  <si>
-    <t>0.06±0.24</t>
-  </si>
-  <si>
-    <t>123902</t>
-  </si>
-  <si>
-    <t>0.58±0.49</t>
-  </si>
-  <si>
-    <t>0.35±0.48</t>
-  </si>
-  <si>
-    <t>0.18±0.38</t>
-  </si>
-  <si>
-    <t>40.0</t>
-  </si>
-  <si>
-    <t>0.34±0.47</t>
-  </si>
-  <si>
-    <t>0.38±0.49</t>
-  </si>
-  <si>
-    <t>0.24±0.43</t>
-  </si>
-  <si>
-    <t>0.04±0.19</t>
-  </si>
-  <si>
-    <t>46.67</t>
-  </si>
-  <si>
-    <t>66.67</t>
-  </si>
-  <si>
-    <t>37.71</t>
-  </si>
-  <si>
-    <t>0.23±0.42</t>
-  </si>
-  <si>
-    <t>0.17±0.37</t>
-  </si>
-  <si>
-    <t>0.27±0.44</t>
-  </si>
-  <si>
-    <t>0.1±0.3</t>
+    <t>0.18±0.39</t>
+  </si>
+  <si>
+    <t>0.54±0.5</t>
+  </si>
+  <si>
+    <t>0.1±0.29</t>
+  </si>
+  <si>
+    <t>0.31±0.46</t>
+  </si>
+  <si>
+    <t>0.09±0.29</t>
+  </si>
+  <si>
+    <t>0.07±0.26</t>
+  </si>
+  <si>
+    <t>0.06±0.25</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>0.68±0.47</t>
+  </si>
+  <si>
+    <t>0.28±0.45</t>
+  </si>
+  <si>
+    <t>0.56±0.5</t>
+  </si>
+  <si>
+    <t>0.03±0.16</t>
+  </si>
+  <si>
+    <t>0.05±0.21</t>
+  </si>
+  <si>
+    <t>0.27±0.45</t>
+  </si>
+  <si>
+    <t>0.15±0.35</t>
   </si>
   <si>
     <t># training seizures with unsupervised preictal</t>
@@ -473,9 +528,6 @@
     <t>FR method</t>
   </si>
   <si>
-    <t>Frel</t>
-  </si>
-  <si>
     <t>SS</t>
   </si>
   <si>
@@ -483,9 +535,6 @@
   </si>
   <si>
     <t>Above Chance Level</t>
-  </si>
-  <si>
-    <t>Fred</t>
   </si>
 </sst>
 </file>
@@ -845,7 +894,2023 @@
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="9" width="10" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="11" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="14" max="14" width="36" customWidth="1"/>
+    <col min="15" max="15" width="14" customWidth="1"/>
+    <col min="16" max="16" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.94</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="2">
+        <v>24</v>
+      </c>
+      <c r="J2" s="2">
+        <v>10</v>
+      </c>
+      <c r="K2" s="2">
+        <v>256</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2">
+        <v>24</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0.1122358861619466</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="2">
+        <v>27</v>
+      </c>
+      <c r="J4" s="2">
+        <v>15</v>
+      </c>
+      <c r="K4" s="2">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0.39184382875539397</v>
+      </c>
+      <c r="N4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>4</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2">
+        <v>24</v>
+      </c>
+      <c r="J5" s="2">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2">
+        <v>4096</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0.27615225404674831</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2">
+        <v>26</v>
+      </c>
+      <c r="J6" s="2">
+        <v>15</v>
+      </c>
+      <c r="K6" s="2">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.77</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="2">
+        <v>26</v>
+      </c>
+      <c r="J7" s="2">
+        <v>20</v>
+      </c>
+      <c r="K7" s="2">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="2">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2">
+        <v>10</v>
+      </c>
+      <c r="K8" s="2">
+        <v>16</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0.2226241722265121</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.83</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="2">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2">
+        <v>20</v>
+      </c>
+      <c r="K9" s="2">
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0.15235423200516959</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.01</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="2">
+        <v>23</v>
+      </c>
+      <c r="J10" s="2">
+        <v>10</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="L10" s="2">
+        <v>1</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0.1035494448599206</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="2">
+        <v>26</v>
+      </c>
+      <c r="J11" s="2">
+        <v>20</v>
+      </c>
+      <c r="K11" s="2">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2">
+        <v>22</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.53</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I13" s="2">
+        <v>25</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2">
+        <v>23</v>
+      </c>
+      <c r="J14" s="2">
+        <v>20</v>
+      </c>
+      <c r="K14" s="2">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" s="2">
+        <v>26</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0</v>
+      </c>
+      <c r="C16" s="2">
+        <v>5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" s="2">
+        <v>26</v>
+      </c>
+      <c r="J16" s="2">
+        <v>15</v>
+      </c>
+      <c r="K16" s="2">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0.32388454996408861</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="2">
+        <v>27</v>
+      </c>
+      <c r="J17" s="2">
+        <v>25</v>
+      </c>
+      <c r="K17" s="2">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="L17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0.22323503752046139</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>3</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="2">
+        <v>26</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
+      <c r="K18" s="2">
+        <v>1.52587890625E-5</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0.16430754002128509</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0.22</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="2">
+        <v>25</v>
+      </c>
+      <c r="J19" s="2">
+        <v>10</v>
+      </c>
+      <c r="K19" s="2">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M19" s="2">
+        <v>1.288564345664003</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B20" s="2">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2">
+        <v>3</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="2">
+        <v>27</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5</v>
+      </c>
+      <c r="K20" s="2">
+        <v>6.25E-2</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1.3882087041140769E-2</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="2">
+        <v>25</v>
+      </c>
+      <c r="J21" s="2">
+        <v>20</v>
+      </c>
+      <c r="K21" s="2">
+        <v>4096</v>
+      </c>
+      <c r="L21" s="2">
+        <v>1</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0.4208852558502284</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="2">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" s="2">
+        <v>26</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5</v>
+      </c>
+      <c r="K22" s="2">
+        <v>256</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0.4295498374181706</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23" s="2">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2">
+        <v>3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I23" s="2">
+        <v>24</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
+      <c r="K23" s="2">
+        <v>1.52587890625E-5</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0.22757325614722779</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="2">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
+        <v>2</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0.45</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" s="2">
+        <v>25</v>
+      </c>
+      <c r="J24" s="2">
+        <v>20</v>
+      </c>
+      <c r="K24" s="2">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="2">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2">
+        <v>2</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" s="2">
+        <v>27</v>
+      </c>
+      <c r="J25" s="2">
+        <v>10</v>
+      </c>
+      <c r="K25" s="2">
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0.1746809646271047</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="C26" s="2">
+        <v>3</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0.17</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I26" s="2">
+        <v>22</v>
+      </c>
+      <c r="J26" s="2">
+        <v>15</v>
+      </c>
+      <c r="K26" s="2">
+        <v>1.52587890625E-5</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2">
+        <v>4</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="2">
+        <v>26</v>
+      </c>
+      <c r="J27" s="2">
+        <v>15</v>
+      </c>
+      <c r="K27" s="2">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I28" s="2">
+        <v>25</v>
+      </c>
+      <c r="J28" s="2">
+        <v>20</v>
+      </c>
+      <c r="K28" s="2">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>4.7956455538371162E-2</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="2">
+        <v>24</v>
+      </c>
+      <c r="J29" s="2">
+        <v>20</v>
+      </c>
+      <c r="K29" s="2">
+        <v>1.52587890625E-5</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>4.0886479446972511E-2</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="2">
+        <v>26</v>
+      </c>
+      <c r="J30" s="2">
+        <v>5</v>
+      </c>
+      <c r="K30" s="2">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M30" s="2">
+        <v>1.1304788400053849</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="2">
+        <v>0</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I31" s="2">
+        <v>23</v>
+      </c>
+      <c r="J31" s="2">
+        <v>5</v>
+      </c>
+      <c r="K31" s="2">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0.25723165412231652</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="2">
+        <v>2</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" s="2">
+        <v>24</v>
+      </c>
+      <c r="J32" s="2">
+        <v>15</v>
+      </c>
+      <c r="K32" s="2">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0.1076796498114215</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="2">
+        <v>25</v>
+      </c>
+      <c r="J33" s="2">
+        <v>5</v>
+      </c>
+      <c r="K33" s="2">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0.25</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0.12296509840623571</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="O33" s="2">
+        <v>7.8286154558503492E-39</v>
+      </c>
+      <c r="P33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1</v>
+      </c>
+      <c r="C34" s="2">
+        <v>2</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0.69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I34" s="2">
+        <v>21</v>
+      </c>
+      <c r="J34" s="2">
+        <v>5</v>
+      </c>
+      <c r="K34" s="2">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="M34" s="2">
+        <v>7.9761783457525742E-2</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="O34" s="2">
+        <v>6.0102502806128268E-281</v>
+      </c>
+      <c r="P34" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0</v>
+      </c>
+      <c r="C35" s="2">
+        <v>1</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0.71</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I35" s="2">
+        <v>23</v>
+      </c>
+      <c r="J35" s="2">
+        <v>15</v>
+      </c>
+      <c r="K35" s="2">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0.49940347641973548</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="C36" s="2">
+        <v>2</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I36" s="2">
+        <v>24</v>
+      </c>
+      <c r="J36" s="2">
+        <v>5</v>
+      </c>
+      <c r="K36" s="2">
+        <v>16</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>4.7148188143587497E-2</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0</v>
+      </c>
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.59</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="2">
+        <v>26</v>
+      </c>
+      <c r="J37" s="2">
+        <v>5</v>
+      </c>
+      <c r="K37" s="2">
+        <v>3.90625E-3</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0.1305285767708764</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0</v>
+      </c>
+      <c r="C38" s="2">
+        <v>3</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.66</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0.04</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I38" s="2">
+        <v>24</v>
+      </c>
+      <c r="J38" s="2">
+        <v>5</v>
+      </c>
+      <c r="K38" s="2">
+        <v>9.5367431640625E-7</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M38" s="2">
+        <v>4.8564642317901877E-2</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2">
+        <v>5</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0.15</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="2">
+        <v>27</v>
+      </c>
+      <c r="J39" s="2">
+        <v>5</v>
+      </c>
+      <c r="K39" s="2">
+        <v>2.44140625E-4</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="2">
+        <v>25</v>
+      </c>
+      <c r="J40" s="2">
+        <v>5</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>6.478820854604464E-2</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0</v>
+      </c>
+      <c r="C41" s="2">
+        <v>2</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0.64</v>
+      </c>
+      <c r="E41" s="2">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="2">
+        <v>25</v>
+      </c>
+      <c r="J41" s="2">
+        <v>5</v>
+      </c>
+      <c r="K41" s="2">
+        <v>1.52587890625E-5</v>
+      </c>
+      <c r="L41" s="2">
+        <v>0</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:P41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,49 +2935,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -940,7 +3005,7 @@
       <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>24</v>
       </c>
       <c r="J2" s="2">
@@ -974,41 +3039,43 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="E3" s="2">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2">
         <v>24</v>
       </c>
       <c r="J3" s="2">
         <v>5</v>
       </c>
       <c r="K3" s="2">
-        <v>3.90625E-3</v>
+        <v>1.52587890625E-5</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
-        <v>0.1122358861619466</v>
+        <v>0.20340896091056099</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O3" s="2">
+        <v>7.4105442661556616E-227</v>
+      </c>
       <c r="P3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -1036,7 +3103,7 @@
       <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>27</v>
       </c>
       <c r="J4" s="2">
@@ -1052,7 +3119,7 @@
         <v>0.39184382875539397</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2">
@@ -1070,37 +3137,37 @@
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="E5" s="2">
-        <v>0.13</v>
+        <v>0.17</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5">
+        <v>7</v>
+      </c>
+      <c r="I5" s="2">
         <v>24</v>
       </c>
       <c r="J5" s="2">
         <v>10</v>
       </c>
       <c r="K5" s="2">
-        <v>4096</v>
+        <v>3.90625E-3</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>0.27615225404674831</v>
+        <v>0</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2">
@@ -1118,21 +3185,21 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>0.7</v>
+        <v>0.77</v>
       </c>
       <c r="E6" s="2">
-        <v>0.08</v>
+        <v>0.1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>24</v>
+        <v>113</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>26</v>
       </c>
       <c r="J6" s="2">
@@ -1180,7 +3247,7 @@
       <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>26</v>
       </c>
       <c r="J7" s="2">
@@ -1228,7 +3295,7 @@
       <c r="H8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>24</v>
       </c>
       <c r="J8" s="2">
@@ -1244,7 +3311,7 @@
         <v>0.2226241722265121</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>31</v>
+        <v>144</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2">
@@ -1276,7 +3343,7 @@
       <c r="H9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>24</v>
       </c>
       <c r="J9" s="2">
@@ -1292,7 +3359,7 @@
         <v>0.15235423200516959</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>33</v>
+        <v>145</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" s="2">
@@ -1310,25 +3377,25 @@
         <v>2</v>
       </c>
       <c r="D10" s="2">
-        <v>0.84</v>
+        <v>0.89</v>
       </c>
       <c r="E10" s="2">
-        <v>0.01</v>
+        <v>0.05</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>23</v>
       </c>
       <c r="J10" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K10" s="2">
         <v>2.44140625E-4</v>
@@ -1337,10 +3404,10 @@
         <v>1</v>
       </c>
       <c r="M10" s="2">
-        <v>0.1035494448599206</v>
+        <v>4.9108546871959487E-2</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>37</v>
+        <v>146</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -1360,37 +3427,37 @@
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="E11" s="2">
-        <v>0.06</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11">
+        <v>7</v>
+      </c>
+      <c r="I11" s="2">
         <v>26</v>
       </c>
       <c r="J11" s="2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="K11" s="2">
-        <v>9.5367431640625E-7</v>
+        <v>2.44140625E-4</v>
       </c>
       <c r="L11" s="2">
         <v>0</v>
       </c>
       <c r="M11" s="2">
-        <v>0</v>
+        <v>0.96331364480795656</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>8</v>
+        <v>147</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2">
@@ -1422,7 +3489,7 @@
       <c r="H12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>22</v>
       </c>
       <c r="J12" s="2">
@@ -1456,28 +3523,28 @@
         <v>2</v>
       </c>
       <c r="D13" s="2">
-        <v>0.53</v>
+        <v>0.68</v>
       </c>
       <c r="E13" s="2">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I13">
+        <v>7</v>
+      </c>
+      <c r="I13" s="2">
         <v>25</v>
       </c>
       <c r="J13" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K13" s="2">
-        <v>9.5367431640625E-7</v>
+        <v>4096</v>
       </c>
       <c r="L13" s="2">
         <v>0</v>
@@ -1518,7 +3585,7 @@
       <c r="H14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>23</v>
       </c>
       <c r="J14" s="2">
@@ -1566,7 +3633,7 @@
       <c r="H15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>26</v>
       </c>
       <c r="J15" s="2">
@@ -1614,7 +3681,7 @@
       <c r="H16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>26</v>
       </c>
       <c r="J16" s="2">
@@ -1648,21 +3715,21 @@
         <v>1</v>
       </c>
       <c r="D17" s="2">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="E17" s="2">
         <v>0.05</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>51</v>
+        <v>129</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>27</v>
       </c>
       <c r="J17" s="2">
@@ -1672,19 +3739,17 @@
         <v>9.5367431640625E-7</v>
       </c>
       <c r="L17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M17" s="2">
-        <v>0.22323503752046139</v>
+        <v>0.2223938155245154</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="O17" s="2">
-        <v>0</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="O17" s="2"/>
       <c r="P17" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
@@ -1704,15 +3769,15 @@
         <v>0.04</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>26</v>
       </c>
       <c r="J18" s="2">
@@ -1722,17 +3787,19 @@
         <v>1.52587890625E-5</v>
       </c>
       <c r="L18" s="2">
-        <v>0</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M18" s="2">
-        <v>0.16430754002128509</v>
+        <v>0.1025860197311101</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>105</v>
+      </c>
+      <c r="O18" s="2">
+        <v>5.8189098082293194E-189</v>
+      </c>
       <c r="P18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -1746,21 +3813,21 @@
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="E19" s="2">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>25</v>
       </c>
       <c r="J19" s="2">
@@ -1770,13 +3837,13 @@
         <v>9.5367431640625E-7</v>
       </c>
       <c r="L19" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M19" s="2">
-        <v>1.288564345664003</v>
+        <v>0.19072939360835561</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>61</v>
+        <v>140</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2">
@@ -1808,7 +3875,7 @@
       <c r="H20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>27</v>
       </c>
       <c r="J20" s="2">
@@ -1824,7 +3891,7 @@
         <v>1.3882087041140769E-2</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2">
@@ -1848,34 +3915,34 @@
         <v>0.04</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>67</v>
+        <v>27</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>68</v>
+        <v>28</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>25</v>
       </c>
       <c r="J21" s="2">
         <v>20</v>
       </c>
       <c r="K21" s="2">
-        <v>4096</v>
+        <v>1048576</v>
       </c>
       <c r="L21" s="2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M21" s="2">
-        <v>0.4208852558502284</v>
+        <v>0.32059844228341311</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="O21" s="2">
-        <v>0</v>
+        <v>4.6237126267714059E-44</v>
       </c>
       <c r="P21" s="2">
         <v>1</v>
@@ -1906,7 +3973,7 @@
       <c r="H22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <v>26</v>
       </c>
       <c r="J22" s="2">
@@ -1922,7 +3989,7 @@
         <v>0.4295498374181706</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2">
@@ -1931,7 +3998,7 @@
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -1940,21 +4007,21 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="E23" s="2">
         <v>0.05</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <v>24</v>
       </c>
       <c r="J23" s="2">
@@ -1967,10 +4034,10 @@
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>0.22757325614722779</v>
+        <v>0.22873988278733021</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2">
@@ -1988,41 +4055,43 @@
         <v>2</v>
       </c>
       <c r="D24" s="2">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="E24" s="2">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>76</v>
+        <v>30</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>77</v>
+        <v>6</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I24">
+        <v>7</v>
+      </c>
+      <c r="I24" s="2">
         <v>25</v>
       </c>
       <c r="J24" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K24" s="2">
-        <v>3.90625E-3</v>
+        <v>9.5367431640625E-7</v>
       </c>
       <c r="L24" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M24" s="2">
         <v>0</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O24" s="2"/>
+        <v>125</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
       <c r="P24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
@@ -2050,7 +4119,7 @@
       <c r="H25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>27</v>
       </c>
       <c r="J25" s="2">
@@ -2066,7 +4135,7 @@
         <v>0.1746809646271047</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="O25" s="2">
         <v>0</v>
@@ -2086,25 +4155,25 @@
         <v>3</v>
       </c>
       <c r="D26" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.68</v>
       </c>
       <c r="E26" s="2">
-        <v>0.17</v>
+        <v>0.1</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I26">
+        <v>12</v>
+      </c>
+      <c r="I26" s="2">
         <v>22</v>
       </c>
       <c r="J26" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K26" s="2">
         <v>1.52587890625E-5</v>
@@ -2113,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="2">
-        <v>0</v>
+        <v>0.1106704837531349</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2">
@@ -2137,34 +4206,34 @@
         <v>0.64</v>
       </c>
       <c r="E27" s="2">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>85</v>
+        <v>136</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>86</v>
+        <v>137</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>26</v>
       </c>
       <c r="J27" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K27" s="2">
-        <v>3.90625E-3</v>
+        <v>1048576</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
       </c>
       <c r="M27" s="2">
-        <v>0</v>
+        <v>0.52219312059301637</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>8</v>
+        <v>127</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2">
@@ -2182,37 +4251,37 @@
         <v>4</v>
       </c>
       <c r="D28" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.76</v>
       </c>
       <c r="E28" s="2">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I28">
+        <v>17</v>
+      </c>
+      <c r="I28" s="2">
         <v>25</v>
       </c>
       <c r="J28" s="2">
         <v>20</v>
       </c>
       <c r="K28" s="2">
-        <v>3.90625E-3</v>
+        <v>2.44140625E-4</v>
       </c>
       <c r="L28" s="2">
         <v>0</v>
       </c>
       <c r="M28" s="2">
-        <v>4.7956455538371162E-2</v>
+        <v>0.47547701695163058</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2">
@@ -2230,37 +4299,37 @@
         <v>4</v>
       </c>
       <c r="D29" s="2">
-        <v>0.69</v>
+        <v>0.7</v>
       </c>
       <c r="E29" s="2">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>92</v>
+        <v>30</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>93</v>
+        <v>6</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>24</v>
       </c>
       <c r="J29" s="2">
         <v>20</v>
       </c>
       <c r="K29" s="2">
-        <v>1.52587890625E-5</v>
+        <v>2.44140625E-4</v>
       </c>
       <c r="L29" s="2">
         <v>0</v>
       </c>
       <c r="M29" s="2">
-        <v>4.0886479446972511E-2</v>
+        <v>5.565152889300426E-2</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2">
@@ -2281,18 +4350,18 @@
         <v>0.6</v>
       </c>
       <c r="E30" s="2">
-        <v>0.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>97</v>
+        <v>79</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I30">
+        <v>7</v>
+      </c>
+      <c r="I30" s="2">
         <v>26</v>
       </c>
       <c r="J30" s="2">
@@ -2305,14 +4374,16 @@
         <v>0.5</v>
       </c>
       <c r="M30" s="2">
-        <v>1.1304788400053849</v>
+        <v>0.20489636451648671</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="O30" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="O30" s="2">
+        <v>8.0769192425893896E-153</v>
+      </c>
       <c r="P30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
@@ -2340,7 +4411,7 @@
       <c r="H31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <v>23</v>
       </c>
       <c r="J31" s="2">
@@ -2356,7 +4427,7 @@
         <v>0.25723165412231652</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" s="2">
@@ -2374,37 +4445,37 @@
         <v>2</v>
       </c>
       <c r="D32" s="2">
-        <v>0.62</v>
+        <v>0.75</v>
       </c>
       <c r="E32" s="2">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>104</v>
+        <v>64</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I32">
+        <v>7</v>
+      </c>
+      <c r="I32" s="2">
         <v>24</v>
       </c>
       <c r="J32" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K32" s="2">
-        <v>3.90625E-3</v>
+        <v>65536</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
       </c>
       <c r="M32" s="2">
-        <v>0.1076796498114215</v>
+        <v>5.0422995003487382E-2</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2">
@@ -2436,7 +4507,7 @@
       <c r="H33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <v>25</v>
       </c>
       <c r="J33" s="2">
@@ -2452,10 +4523,10 @@
         <v>0.12296509840623571</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>108</v>
+        <v>146</v>
       </c>
       <c r="O33" s="2">
-        <v>6.4080434466873049E-36</v>
+        <v>2.3468323876799489E-26</v>
       </c>
       <c r="P33" s="2">
         <v>1</v>
@@ -2472,40 +4543,40 @@
         <v>2</v>
       </c>
       <c r="D34" s="2">
-        <v>0.69</v>
+        <v>0.73</v>
       </c>
       <c r="E34" s="2">
-        <v>0.1</v>
+        <v>0.31</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="2">
         <v>21</v>
       </c>
       <c r="J34" s="2">
         <v>5</v>
       </c>
       <c r="K34" s="2">
-        <v>3.90625E-3</v>
+        <v>2.44140625E-4</v>
       </c>
       <c r="L34" s="2">
         <v>0.5</v>
       </c>
       <c r="M34" s="2">
-        <v>7.9761783457525742E-2</v>
+        <v>0.25664178849289981</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>105</v>
+        <v>140</v>
       </c>
       <c r="O34" s="2">
-        <v>0</v>
+        <v>1.1435261818234761E-52</v>
       </c>
       <c r="P34" s="2">
         <v>1</v>
@@ -2536,7 +4607,7 @@
       <c r="H35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <v>23</v>
       </c>
       <c r="J35" s="2">
@@ -2552,7 +4623,7 @@
         <v>0.49940347641973548</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>37</v>
+        <v>139</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2">
@@ -2573,34 +4644,34 @@
         <v>0.72</v>
       </c>
       <c r="E36" s="2">
-        <v>0.16</v>
+        <v>0.11</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="2">
         <v>24</v>
       </c>
       <c r="J36" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K36" s="2">
-        <v>16</v>
+        <v>65536</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
       </c>
       <c r="M36" s="2">
-        <v>4.7148188143587497E-2</v>
+        <v>0.32110170136450028</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2">
@@ -2609,7 +4680,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -2632,7 +4703,7 @@
       <c r="H37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <v>26</v>
       </c>
       <c r="J37" s="2">
@@ -2648,7 +4719,7 @@
         <v>0.1305285767708764</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2">
@@ -2657,7 +4728,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -2680,7 +4751,7 @@
       <c r="H38" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="2">
         <v>24</v>
       </c>
       <c r="J38" s="2">
@@ -2696,7 +4767,7 @@
         <v>4.8564642317901877E-2</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>121</v>
+        <v>151</v>
       </c>
       <c r="O38" s="2">
         <v>0</v>
@@ -2707,7 +4778,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
@@ -2716,46 +4787,48 @@
         <v>5</v>
       </c>
       <c r="D39" s="2">
-        <v>0.63</v>
+        <v>0.66</v>
       </c>
       <c r="E39" s="2">
-        <v>0.15</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I39">
+        <v>7</v>
+      </c>
+      <c r="I39" s="2">
         <v>27</v>
       </c>
       <c r="J39" s="2">
         <v>5</v>
       </c>
       <c r="K39" s="2">
-        <v>2.44140625E-4</v>
+        <v>9.5367431640625E-7</v>
       </c>
       <c r="L39" s="2">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M39" s="2">
-        <v>0</v>
+        <v>6.6117518434321731E-2</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O39" s="2"/>
+        <v>120</v>
+      </c>
+      <c r="O39" s="2">
+        <v>5.2018956590954183E-283</v>
+      </c>
       <c r="P39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -2778,7 +4851,7 @@
       <c r="H40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <v>25</v>
       </c>
       <c r="J40" s="2">
@@ -2794,7 +4867,7 @@
         <v>6.478820854604464E-2</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2">
@@ -2803,7 +4876,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -2826,7 +4899,7 @@
       <c r="H41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <v>25</v>
       </c>
       <c r="J41" s="2">
@@ -2854,12 +4927,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2884,49 +4957,49 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>143</v>
+        <v>161</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>144</v>
+        <v>162</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -2954,7 +5027,7 @@
       <c r="H2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>24</v>
       </c>
       <c r="J2" s="2">
@@ -2988,43 +5061,41 @@
         <v>2</v>
       </c>
       <c r="D3" s="2">
-        <v>0.68</v>
+        <v>0.66</v>
       </c>
       <c r="E3" s="2">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3">
+        <v>12</v>
+      </c>
+      <c r="I3" s="2">
         <v>24</v>
       </c>
       <c r="J3" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K3" s="2">
-        <v>1.52587890625E-5</v>
+        <v>16</v>
       </c>
       <c r="L3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="2">
-        <v>0.20340896091056099</v>
+        <v>5.5491326058338293E-2</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="O3" s="2">
-        <v>6.4083286648041518E-238</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="O3" s="2"/>
       <c r="P3" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -3038,25 +5109,25 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>0.5</v>
+        <v>0.48</v>
       </c>
       <c r="E4" s="2">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>27</v>
       </c>
       <c r="J4" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K4" s="2">
         <v>9.5367431640625E-7</v>
@@ -3065,10 +5136,10 @@
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <v>0.39184382875539397</v>
+        <v>0.10022270877872699</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="O4" s="2"/>
       <c r="P4" s="2">
@@ -3086,37 +5157,37 @@
         <v>4</v>
       </c>
       <c r="D5" s="2">
-        <v>0.66</v>
+        <v>0.61</v>
       </c>
       <c r="E5" s="2">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5">
+        <v>17</v>
+      </c>
+      <c r="I5" s="2">
         <v>24</v>
       </c>
       <c r="J5" s="2">
         <v>10</v>
       </c>
       <c r="K5" s="2">
-        <v>3.90625E-3</v>
+        <v>2.44140625E-4</v>
       </c>
       <c r="L5" s="2">
         <v>0</v>
       </c>
       <c r="M5" s="2">
-        <v>0</v>
+        <v>7.3067513448786231E-2</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>8</v>
+        <v>118</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" s="2">
@@ -3134,25 +5205,25 @@
         <v>1</v>
       </c>
       <c r="D6" s="2">
-        <v>0.77</v>
+        <v>0.76</v>
       </c>
       <c r="E6" s="2">
-        <v>0.1</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>26</v>
       </c>
       <c r="J6" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K6" s="2">
         <v>3.90625E-3</v>
@@ -3182,37 +5253,37 @@
         <v>2</v>
       </c>
       <c r="D7" s="2">
-        <v>0.77</v>
+        <v>0.72</v>
       </c>
       <c r="E7" s="2">
-        <v>0.02</v>
+        <v>0.11</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>26</v>
       </c>
       <c r="J7" s="2">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="K7" s="2">
-        <v>3.90625E-3</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
         <v>0</v>
       </c>
       <c r="M7" s="2">
-        <v>0</v>
+        <v>7.7072941800005804E-2</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>8</v>
+        <v>120</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2">
@@ -3244,7 +5315,7 @@
       <c r="H8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>24</v>
       </c>
       <c r="J8" s="2">
@@ -3260,7 +5331,7 @@
         <v>0.2226241722265121</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>57</v>
+        <v>144</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" s="2">
@@ -3278,41 +5349,43 @@
         <v>5</v>
       </c>
       <c r="D9" s="2">
-        <v>0.83</v>
+        <v>0.81</v>
       </c>
       <c r="E9" s="2">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" s="2">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2">
         <v>15</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9">
-        <v>24</v>
-      </c>
-      <c r="J9" s="2">
-        <v>20</v>
       </c>
       <c r="K9" s="2">
         <v>2.44140625E-4</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M9" s="2">
-        <v>0.15235423200516959</v>
+        <v>8.7406215103903215E-2</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="O9" s="2"/>
+        <v>49</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -3340,7 +5413,7 @@
       <c r="H10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>23</v>
       </c>
       <c r="J10" s="2">
@@ -3356,7 +5429,7 @@
         <v>4.9108546871959487E-2</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="O10" s="2">
         <v>0</v>
@@ -3390,7 +5463,7 @@
       <c r="H11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>26</v>
       </c>
       <c r="J11" s="2">
@@ -3406,7 +5479,7 @@
         <v>0.96331364480795656</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>128</v>
+        <v>156</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" s="2">
@@ -3438,7 +5511,7 @@
       <c r="H12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>22</v>
       </c>
       <c r="J12" s="2">
@@ -3486,7 +5559,7 @@
       <c r="H13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>25</v>
       </c>
       <c r="J13" s="2">
@@ -3520,28 +5593,28 @@
         <v>1</v>
       </c>
       <c r="D14" s="2">
-        <v>0.59</v>
+        <v>0.53</v>
       </c>
       <c r="E14" s="2">
-        <v>0.17</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>46</v>
+        <v>129</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>23</v>
       </c>
       <c r="J14" s="2">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="K14" s="2">
-        <v>9.5367431640625E-7</v>
+        <v>1.52587890625E-5</v>
       </c>
       <c r="L14" s="2">
         <v>0</v>
@@ -3568,37 +5641,37 @@
         <v>1</v>
       </c>
       <c r="D15" s="2">
-        <v>0.57999999999999996</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E15" s="2">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>46</v>
+        <v>153</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>26</v>
       </c>
       <c r="J15" s="2">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="K15" s="2">
-        <v>9.5367431640625E-7</v>
+        <v>16</v>
       </c>
       <c r="L15" s="2">
         <v>0</v>
       </c>
       <c r="M15" s="2">
-        <v>0</v>
+        <v>0.10450837821895601</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" s="2">
@@ -3616,37 +5689,37 @@
         <v>5</v>
       </c>
       <c r="D16" s="2">
-        <v>0.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E16" s="2">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>26</v>
       </c>
       <c r="J16" s="2">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="K16" s="2">
-        <v>9.5367431640625E-7</v>
+        <v>2.44140625E-4</v>
       </c>
       <c r="L16" s="2">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="M16" s="2">
-        <v>0.32388454996408861</v>
+        <v>3.2985308398614771E-2</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>49</v>
+        <v>157</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" s="2">
@@ -3670,7 +5743,7 @@
         <v>0.05</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>6</v>
@@ -3678,7 +5751,7 @@
       <c r="H17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>27</v>
       </c>
       <c r="J17" s="2">
@@ -3694,7 +5767,7 @@
         <v>0.2223938155245154</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>33</v>
+        <v>150</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" s="2">
@@ -3712,43 +5785,41 @@
         <v>3</v>
       </c>
       <c r="D18" s="2">
-        <v>0.69</v>
+        <v>0.65</v>
       </c>
       <c r="E18" s="2">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>26</v>
       </c>
       <c r="J18" s="2">
         <v>5</v>
       </c>
       <c r="K18" s="2">
-        <v>1.52587890625E-5</v>
+        <v>1</v>
       </c>
       <c r="L18" s="2">
-        <v>0.33333333333333331</v>
+        <v>0</v>
       </c>
       <c r="M18" s="2">
-        <v>0.1025860197311101</v>
+        <v>0</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="O18" s="2">
-        <v>3.2413443490855161E-151</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="O18" s="2"/>
       <c r="P18" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
@@ -3762,37 +5833,37 @@
         <v>2</v>
       </c>
       <c r="D19" s="2">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="E19" s="2">
-        <v>0.25</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I19">
+        <v>7</v>
+      </c>
+      <c r="I19" s="2">
         <v>25</v>
       </c>
       <c r="J19" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K19" s="2">
         <v>9.5367431640625E-7</v>
       </c>
       <c r="L19" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M19" s="2">
-        <v>0.19072939360835561</v>
+        <v>0.64273193533727213</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>132</v>
+        <v>154</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" s="2">
@@ -3810,37 +5881,37 @@
         <v>3</v>
       </c>
       <c r="D20" s="2">
-        <v>0.52</v>
+        <v>0.48</v>
       </c>
       <c r="E20" s="2">
-        <v>0.15</v>
+        <v>0.22</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>63</v>
+        <v>153</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>27</v>
       </c>
       <c r="J20" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K20" s="2">
-        <v>6.25E-2</v>
+        <v>1</v>
       </c>
       <c r="L20" s="2">
         <v>0</v>
       </c>
       <c r="M20" s="2">
-        <v>1.3882087041140769E-2</v>
+        <v>6.9250212293258447E-3</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>65</v>
+        <v>158</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2">
@@ -3858,40 +5929,40 @@
         <v>2</v>
       </c>
       <c r="D21" s="2">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="E21" s="2">
-        <v>0.04</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>25</v>
       </c>
       <c r="J21" s="2">
         <v>20</v>
       </c>
       <c r="K21" s="2">
-        <v>1048576</v>
+        <v>2.44140625E-4</v>
       </c>
       <c r="L21" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M21" s="2">
-        <v>0.32059844228341311</v>
+        <v>0.25395928701071258</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>133</v>
+        <v>155</v>
       </c>
       <c r="O21" s="2">
-        <v>1.385719752870126E-28</v>
+        <v>0</v>
       </c>
       <c r="P21" s="2">
         <v>1</v>
@@ -3908,46 +5979,48 @@
         <v>4</v>
       </c>
       <c r="D22" s="2">
-        <v>0.6</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E22" s="2">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>5</v>
+        <v>129</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <v>26</v>
       </c>
       <c r="J22" s="2">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="K22" s="2">
-        <v>256</v>
+        <v>9.5367431640625E-7</v>
       </c>
       <c r="L22" s="2">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="M22" s="2">
-        <v>0.4295498374181706</v>
+        <v>0.71374188262348193</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="O22" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
       <c r="P22" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="2">
         <v>1</v>
@@ -3956,21 +6029,21 @@
         <v>3</v>
       </c>
       <c r="D23" s="2">
-        <v>0.69</v>
+        <v>0.68</v>
       </c>
       <c r="E23" s="2">
         <v>0.05</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <v>24</v>
       </c>
       <c r="J23" s="2">
@@ -3983,10 +6056,10 @@
         <v>0</v>
       </c>
       <c r="M23" s="2">
-        <v>0.22873988278733021</v>
+        <v>0.171864358060485</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2">
@@ -4018,7 +6091,7 @@
       <c r="H24" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <v>25</v>
       </c>
       <c r="J24" s="2">
@@ -4034,7 +6107,7 @@
         <v>0</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>135</v>
+        <v>158</v>
       </c>
       <c r="O24" s="2">
         <v>0</v>
@@ -4054,40 +6127,40 @@
         <v>2</v>
       </c>
       <c r="D25" s="2">
-        <v>0.63</v>
+        <v>0.59</v>
       </c>
       <c r="E25" s="2">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>27</v>
       </c>
       <c r="J25" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K25" s="2">
-        <v>2.44140625E-4</v>
+        <v>4096</v>
       </c>
       <c r="L25" s="2">
         <v>0.5</v>
       </c>
       <c r="M25" s="2">
-        <v>0.1746809646271047</v>
+        <v>0.25182064578145508</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="O25" s="2">
-        <v>0</v>
+        <v>6.3424852699924426E-253</v>
       </c>
       <c r="P25" s="2">
         <v>1</v>
@@ -4107,18 +6180,18 @@
         <v>0.68</v>
       </c>
       <c r="E26" s="2">
-        <v>0.1</v>
+        <v>0.12</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I26">
+        <v>17</v>
+      </c>
+      <c r="I26" s="2">
         <v>22</v>
       </c>
       <c r="J26" s="2">
@@ -4131,10 +6204,10 @@
         <v>0</v>
       </c>
       <c r="M26" s="2">
-        <v>0.1106704837531349</v>
+        <v>0</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" s="2">
@@ -4152,37 +6225,37 @@
         <v>4</v>
       </c>
       <c r="D27" s="2">
-        <v>0.64</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="E27" s="2">
-        <v>0.15</v>
+        <v>0.21</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>138</v>
+        <v>6</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>26</v>
       </c>
       <c r="J27" s="2">
         <v>10</v>
       </c>
       <c r="K27" s="2">
-        <v>1048576</v>
+        <v>256</v>
       </c>
       <c r="L27" s="2">
         <v>0</v>
       </c>
       <c r="M27" s="2">
-        <v>0.52219312059301637</v>
+        <v>0</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>129</v>
+        <v>8</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" s="2">
@@ -4206,7 +6279,7 @@
         <v>0.08</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>6</v>
@@ -4214,7 +6287,7 @@
       <c r="H28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <v>25</v>
       </c>
       <c r="J28" s="2">
@@ -4230,7 +6303,7 @@
         <v>0.47547701695163058</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" s="2">
@@ -4262,7 +6335,7 @@
       <c r="H29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>24</v>
       </c>
       <c r="J29" s="2">
@@ -4278,7 +6351,7 @@
         <v>5.565152889300426E-2</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" s="2">
@@ -4296,21 +6369,21 @@
         <v>2</v>
       </c>
       <c r="D30" s="2">
-        <v>0.6</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="E30" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.03</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>79</v>
+        <v>6</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <v>26</v>
       </c>
       <c r="J30" s="2">
@@ -4320,16 +6393,16 @@
         <v>9.5367431640625E-7</v>
       </c>
       <c r="L30" s="2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
-        <v>0.20489636451648671</v>
+        <v>0.37526650318314131</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="O30" s="2">
-        <v>3.5888638030812739E-156</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2">
         <v>1</v>
@@ -4349,18 +6422,18 @@
         <v>0.62</v>
       </c>
       <c r="E31" s="2">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <v>23</v>
       </c>
       <c r="J31" s="2">
@@ -4373,7 +6446,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="2">
-        <v>0.25723165412231652</v>
+        <v>0.28993177732701059</v>
       </c>
       <c r="N31" s="2" t="s">
         <v>101</v>
@@ -4394,37 +6467,37 @@
         <v>2</v>
       </c>
       <c r="D32" s="2">
-        <v>0.75</v>
+        <v>0.7</v>
       </c>
       <c r="E32" s="2">
-        <v>0.04</v>
+        <v>0.12</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I32">
+        <v>17</v>
+      </c>
+      <c r="I32" s="2">
         <v>24</v>
       </c>
       <c r="J32" s="2">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K32" s="2">
-        <v>65536</v>
+        <v>3.90625E-3</v>
       </c>
       <c r="L32" s="2">
         <v>0</v>
       </c>
       <c r="M32" s="2">
-        <v>5.0422995003487382E-2</v>
+        <v>0</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>65</v>
+        <v>8</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" s="2">
@@ -4442,21 +6515,21 @@
         <v>4</v>
       </c>
       <c r="D33" s="2">
-        <v>0.59</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="E33" s="2">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="2">
         <v>25</v>
       </c>
       <c r="J33" s="2">
@@ -4466,19 +6539,17 @@
         <v>9.5367431640625E-7</v>
       </c>
       <c r="L33" s="2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="M33" s="2">
-        <v>0.12296509840623571</v>
+        <v>0.1246511412746867</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="O33" s="2">
-        <v>3.0801357339050219E-44</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.25">
@@ -4492,43 +6563,41 @@
         <v>2</v>
       </c>
       <c r="D34" s="2">
-        <v>0.73</v>
+        <v>0.65</v>
       </c>
       <c r="E34" s="2">
-        <v>0.31</v>
+        <v>0.21</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I34">
+        <v>12</v>
+      </c>
+      <c r="I34" s="2">
         <v>21</v>
       </c>
       <c r="J34" s="2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K34" s="2">
-        <v>2.44140625E-4</v>
+        <v>256</v>
       </c>
       <c r="L34" s="2">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="M34" s="2">
-        <v>0.25664178849289981</v>
+        <v>7.6582710955214239E-2</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O34" s="2">
-        <v>2.4080065843437619E-52</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.25">
@@ -4542,21 +6611,21 @@
         <v>1</v>
       </c>
       <c r="D35" s="2">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="E35" s="2">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <v>23</v>
       </c>
       <c r="J35" s="2">
@@ -4569,10 +6638,10 @@
         <v>0</v>
       </c>
       <c r="M35" s="2">
-        <v>0.49940347641973548</v>
+        <v>0.56977551398697324</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" s="2">
@@ -4590,37 +6659,37 @@
         <v>2</v>
       </c>
       <c r="D36" s="2">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="E36" s="2">
-        <v>0.11</v>
+        <v>0.17</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>63</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I36">
+        <v>12</v>
+      </c>
+      <c r="I36" s="2">
         <v>24</v>
       </c>
       <c r="J36" s="2">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K36" s="2">
-        <v>65536</v>
+        <v>2.44140625E-4</v>
       </c>
       <c r="L36" s="2">
         <v>0</v>
       </c>
       <c r="M36" s="2">
-        <v>0.32110170136450028</v>
+        <v>0</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" s="2">
@@ -4629,7 +6698,7 @@
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B37" s="2">
         <v>0</v>
@@ -4652,7 +6721,7 @@
       <c r="H37" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="2">
         <v>26</v>
       </c>
       <c r="J37" s="2">
@@ -4668,7 +6737,7 @@
         <v>0.1305285767708764</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" s="2">
@@ -4677,7 +6746,7 @@
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B38" s="2">
         <v>0</v>
@@ -4686,21 +6755,21 @@
         <v>3</v>
       </c>
       <c r="D38" s="2">
-        <v>0.66</v>
+        <v>0.63</v>
       </c>
       <c r="E38" s="2">
         <v>0.04</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I38">
+        <v>12</v>
+      </c>
+      <c r="I38" s="2">
         <v>24</v>
       </c>
       <c r="J38" s="2">
@@ -4710,13 +6779,13 @@
         <v>9.5367431640625E-7</v>
       </c>
       <c r="L38" s="2">
-        <v>0.66666666666666663</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="M38" s="2">
-        <v>4.8564642317901877E-2</v>
+        <v>5.1194535609034718E-2</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="O38" s="2">
         <v>0</v>
@@ -4727,7 +6796,7 @@
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B39" s="2">
         <v>1</v>
@@ -4736,21 +6805,21 @@
         <v>5</v>
       </c>
       <c r="D39" s="2">
-        <v>0.66</v>
+        <v>0.64</v>
       </c>
       <c r="E39" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="2">
         <v>27</v>
       </c>
       <c r="J39" s="2">
@@ -4763,13 +6832,13 @@
         <v>0.2</v>
       </c>
       <c r="M39" s="2">
-        <v>6.6117518434321731E-2</v>
+        <v>0.21472452771638359</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>117</v>
+        <v>130</v>
       </c>
       <c r="O39" s="2">
-        <v>9.3209901172012255E-272</v>
+        <v>6.472201166903501E-20</v>
       </c>
       <c r="P39" s="2">
         <v>1</v>
@@ -4777,7 +6846,7 @@
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B40" s="2">
         <v>0</v>
@@ -4786,37 +6855,37 @@
         <v>4</v>
       </c>
       <c r="D40" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.53</v>
       </c>
       <c r="E40" s="2">
-        <v>0.19</v>
+        <v>0.11</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="2">
         <v>25</v>
       </c>
       <c r="J40" s="2">
         <v>5</v>
       </c>
       <c r="K40" s="2">
-        <v>1</v>
+        <v>3.90625E-3</v>
       </c>
       <c r="L40" s="2">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M40" s="2">
-        <v>6.478820854604464E-2</v>
+        <v>0.5204144917113015</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" s="2">
@@ -4825,7 +6894,7 @@
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B41" s="2">
         <v>0</v>
@@ -4840,15 +6909,15 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>100</v>
+        <v>6</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="2">
         <v>25</v>
       </c>
       <c r="J41" s="2">
@@ -4858,17 +6927,19 @@
         <v>1.52587890625E-5</v>
       </c>
       <c r="L41" s="2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="M41" s="2">
-        <v>0</v>
+        <v>7.9543948031287295E-2</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="O41" s="2">
+        <v>2.7236325628299199E-212</v>
+      </c>
       <c r="P41" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
